--- a/output/StructureDefinition-ncdth-condition.xlsx
+++ b/output/StructureDefinition-ncdth-condition.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$38</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -42,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD Thailand Condition Profile</t>
+    <t>NCD TH Condition Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:05:10+07:00</t>
+    <t>2022-02-22T23:30:09+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1218,6 +1221,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1571,7 +1589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1686,7 +1704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -1803,7 +1821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -1918,7 +1936,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2152,7 +2170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>117</v>
       </c>
@@ -2269,7 +2287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2386,7 +2404,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2503,7 +2521,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>141</v>
       </c>
@@ -2622,7 +2640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>146</v>
       </c>
@@ -2757,7 +2775,7 @@
         <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>90</v>
@@ -2874,7 +2892,7 @@
         <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>90</v>
@@ -2991,7 +3009,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3108,7 +3126,7 @@
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3219,13 +3237,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3326,7 +3344,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>214</v>
       </c>
@@ -3459,7 +3477,7 @@
         <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3560,7 +3578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>233</v>
       </c>
@@ -3693,7 +3711,7 @@
         <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3794,7 +3812,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>251</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>258</v>
       </c>
@@ -4026,7 +4044,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>265</v>
       </c>
@@ -4141,7 +4159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>271</v>
       </c>
@@ -4256,7 +4274,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>277</v>
       </c>
@@ -4371,7 +4389,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>283</v>
       </c>
@@ -4486,7 +4504,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>288</v>
       </c>
@@ -4603,7 +4621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>291</v>
       </c>
@@ -4722,7 +4740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>296</v>
       </c>
@@ -4837,7 +4855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>303</v>
       </c>
@@ -4952,7 +4970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>308</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>314</v>
       </c>
@@ -5184,7 +5202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>320</v>
       </c>
@@ -5299,7 +5317,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>321</v>
       </c>
@@ -5416,7 +5434,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>322</v>
       </c>
@@ -5535,7 +5553,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>323</v>
       </c>
@@ -5650,7 +5668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>332</v>
       </c>
@@ -5765,7 +5783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>336</v>
       </c>
@@ -5881,6 +5899,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO38">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI37">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-ncdth-condition.xlsx
+++ b/output/StructureDefinition-ncdth-condition.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NCD TH Condition Profile</t>
+    <t>Condition (NCD TH)</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T23:30:09+07:00</t>
+    <t>2022-02-23T19:35:19+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile สำหรับ Condition resource</t>
+    <t>ใช้บันทึกปัญหา (problem list) หรือการวินิจฉัย (diagnosis)</t>
   </si>
   <si>
     <t>Purpose</t>
